--- a/ch07_file/sub_dir/scores.xlsx
+++ b/ch07_file/sub_dir/scores.xlsx
@@ -433,7 +433,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>전화전호</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>전화전호</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
